--- a/CASUAL/LA ONT/MENDOZA, MARVIC M.xlsx
+++ b/CASUAL/LA ONT/MENDOZA, MARVIC M.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA ONT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E339D7E-D742-439D-9C2C-A9FFA94F1633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
   <si>
     <t>PERIOD</t>
   </si>
@@ -217,12 +216,18 @@
   </si>
   <si>
     <t>10/14,16-18/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>1/7-9/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -891,7 +896,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -908,25 +913,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K129" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1233,34 +1238,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K129"/>
+  <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A39" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A39" activePane="bottomLeft"/>
       <selection activeCell="C7" sqref="C7:F7"/>
-      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
+      <selection pane="bottomLeft" activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1281,7 +1286,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1301,7 +1306,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1321,7 +1326,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1329,7 +1334,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1342,7 +1347,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1359,7 +1364,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1394,7 +1399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1403,7 +1408,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>19</v>
+        <v>19.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1413,12 +1418,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>45</v>
+        <v>48.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -1440,7 +1445,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>44105</v>
       </c>
@@ -1460,7 +1465,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>44136</v>
       </c>
@@ -1480,7 +1485,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>44166</v>
       </c>
@@ -1500,7 +1505,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
         <v>44</v>
       </c>
@@ -1518,7 +1523,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>44197</v>
       </c>
@@ -1538,7 +1543,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>44228</v>
       </c>
@@ -1558,7 +1563,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="41">
         <v>44256</v>
       </c>
@@ -1578,7 +1583,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="41">
         <v>44287</v>
       </c>
@@ -1598,7 +1603,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="41">
         <v>44317</v>
       </c>
@@ -1618,7 +1623,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="41">
         <v>44348</v>
       </c>
@@ -1638,7 +1643,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="41">
         <v>44378</v>
       </c>
@@ -1658,7 +1663,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="41">
         <v>44409</v>
       </c>
@@ -1678,7 +1683,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="41">
         <v>44440</v>
       </c>
@@ -1698,7 +1703,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="41">
         <v>44470</v>
       </c>
@@ -1718,7 +1723,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="41">
         <v>44501</v>
       </c>
@@ -1738,7 +1743,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="41">
         <v>44531</v>
       </c>
@@ -1762,7 +1767,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="s">
         <v>46</v>
       </c>
@@ -1780,7 +1785,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>44562</v>
       </c>
@@ -1800,7 +1805,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>44593</v>
       </c>
@@ -1820,7 +1825,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>44621</v>
       </c>
@@ -1840,7 +1845,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>44652</v>
       </c>
@@ -1860,7 +1865,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>44682</v>
       </c>
@@ -1886,7 +1891,7 @@
         <v>44693</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>44713</v>
       </c>
@@ -1906,7 +1911,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>44743</v>
       </c>
@@ -1926,7 +1931,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>44774</v>
       </c>
@@ -1952,7 +1957,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>44805</v>
       </c>
@@ -1972,7 +1977,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>44835</v>
       </c>
@@ -1992,7 +1997,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>44866</v>
       </c>
@@ -2018,7 +2023,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>44896</v>
       </c>
@@ -2044,7 +2049,7 @@
         <v>44914</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>57</v>
@@ -2066,7 +2071,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="48" t="s">
         <v>53</v>
       </c>
@@ -2084,7 +2089,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>44957</v>
       </c>
@@ -2110,7 +2115,7 @@
         <v>44949</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44985</v>
       </c>
@@ -2136,7 +2141,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>56</v>
@@ -2156,7 +2161,7 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>45016</v>
       </c>
@@ -2176,7 +2181,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>45046</v>
       </c>
@@ -2202,7 +2207,7 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>56</v>
@@ -2222,7 +2227,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>45077</v>
       </c>
@@ -2242,7 +2247,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>45107</v>
       </c>
@@ -2262,7 +2267,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>45138</v>
       </c>
@@ -2282,7 +2287,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>45169</v>
       </c>
@@ -2302,7 +2307,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>45199</v>
       </c>
@@ -2322,22 +2327,24 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>45230</v>
       </c>
       <c r="B53" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="13"/>
+      <c r="C53" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D53" s="39">
         <v>4</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="20"/>
-      <c r="G53" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G53" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H53" s="39"/>
       <c r="I53" s="9"/>
@@ -2346,44 +2353,50 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>45260</v>
       </c>
       <c r="B54" s="20"/>
-      <c r="C54" s="13"/>
+      <c r="C54" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D54" s="39"/>
       <c r="E54" s="9"/>
       <c r="F54" s="20"/>
-      <c r="G54" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G54" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H54" s="39"/>
       <c r="I54" s="9"/>
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>45291</v>
       </c>
       <c r="B55" s="20"/>
-      <c r="C55" s="13"/>
+      <c r="C55" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D55" s="39"/>
       <c r="E55" s="9"/>
       <c r="F55" s="20"/>
-      <c r="G55" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G55" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H55" s="39"/>
       <c r="I55" s="9"/>
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="40"/>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="48" t="s">
+        <v>61</v>
+      </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
       <c r="D56" s="39"/>
@@ -2398,11 +2411,17 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="40"/>
-      <c r="B57" s="20"/>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="40">
+        <v>45322</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C57" s="13"/>
-      <c r="D57" s="39"/>
+      <c r="D57" s="39">
+        <v>3</v>
+      </c>
       <c r="E57" s="9"/>
       <c r="F57" s="20"/>
       <c r="G57" s="13" t="str">
@@ -2412,10 +2431,14 @@
       <c r="H57" s="39"/>
       <c r="I57" s="9"/>
       <c r="J57" s="11"/>
-      <c r="K57" s="20"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="40"/>
+      <c r="K57" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="40">
+        <v>45351</v>
+      </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
       <c r="D58" s="39"/>
@@ -2430,8 +2453,10 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="40"/>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="40">
+        <v>45382</v>
+      </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
       <c r="D59" s="39"/>
@@ -2446,8 +2471,10 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="40"/>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="40">
+        <v>45412</v>
+      </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
       <c r="D60" s="39"/>
@@ -2462,8 +2489,10 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="40"/>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="40">
+        <v>45443</v>
+      </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
       <c r="D61" s="39"/>
@@ -2478,8 +2507,10 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="40"/>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="40">
+        <v>45473</v>
+      </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
       <c r="D62" s="39"/>
@@ -2494,8 +2525,10 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="40"/>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="40">
+        <v>45504</v>
+      </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
       <c r="D63" s="39"/>
@@ -2510,8 +2543,10 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="40"/>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="40">
+        <v>45535</v>
+      </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
       <c r="D64" s="39"/>
@@ -2526,8 +2561,10 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="40"/>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="40">
+        <v>45565</v>
+      </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
       <c r="D65" s="39"/>
@@ -2542,7 +2579,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -2558,7 +2595,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -2574,7 +2611,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -2590,7 +2627,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -2606,7 +2643,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -2622,7 +2659,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -2638,7 +2675,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -2654,7 +2691,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -2670,7 +2707,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -2686,7 +2723,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -2702,7 +2739,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -2718,7 +2755,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -2734,7 +2771,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -2750,7 +2787,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -2766,7 +2803,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -2782,7 +2819,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -2798,7 +2835,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -2814,7 +2851,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -2830,7 +2867,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -2846,7 +2883,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -2862,7 +2899,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -2878,7 +2915,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -2894,7 +2931,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -2910,7 +2947,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -2926,7 +2963,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -2942,7 +2979,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -2958,7 +2995,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -2974,7 +3011,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -2990,7 +3027,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3006,7 +3043,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3022,7 +3059,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3038,7 +3075,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3054,7 +3091,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3070,7 +3107,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3086,7 +3123,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3102,7 +3139,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3118,7 +3155,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3134,7 +3171,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3150,7 +3187,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3166,7 +3203,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3182,7 +3219,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3198,7 +3235,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3214,7 +3251,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3230,7 +3267,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3246,7 +3283,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3262,7 +3299,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3278,7 +3315,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3294,7 +3331,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3310,7 +3347,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3326,7 +3363,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3342,7 +3379,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3358,7 +3395,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3374,7 +3411,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3390,7 +3427,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3406,7 +3443,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3422,7 +3459,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3438,7 +3475,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3454,7 +3491,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3470,7 +3507,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3486,7 +3523,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3502,7 +3539,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3518,7 +3555,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3534,7 +3571,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -3550,21 +3587,37 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="41"/>
-      <c r="B129" s="15"/>
-      <c r="C129" s="42"/>
-      <c r="D129" s="43"/>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="40"/>
+      <c r="B129" s="20"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="39"/>
       <c r="E129" s="9"/>
-      <c r="F129" s="15"/>
-      <c r="G129" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H129" s="43"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H129" s="39"/>
       <c r="I129" s="9"/>
-      <c r="J129" s="12"/>
-      <c r="K129" s="15"/>
+      <c r="J129" s="11"/>
+      <c r="K129" s="20"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="41"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="42"/>
+      <c r="D130" s="43"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="43"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3581,10 +3634,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3607,28 +3660,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -3641,7 +3694,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -3670,7 +3723,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -3690,17 +3743,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -3721,7 +3774,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -3748,7 +3801,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -3774,7 +3827,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -3800,7 +3853,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -3826,7 +3879,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -3852,7 +3905,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -3878,7 +3931,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -3904,7 +3957,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -3930,7 +3983,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -3950,7 +4003,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -3970,7 +4023,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -3990,7 +4043,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4011,7 +4064,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4032,7 +4085,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4053,7 +4106,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4074,7 +4127,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4095,7 +4148,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4116,7 +4169,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4137,7 +4190,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4158,7 +4211,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4179,7 +4232,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4200,7 +4253,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4221,7 +4274,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4242,7 +4295,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4263,7 +4316,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4284,7 +4337,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4305,7 +4358,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4326,7 +4379,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4347,7 +4400,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4368,7 +4421,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4389,7 +4442,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -4410,7 +4463,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -4419,7 +4472,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -4428,7 +4481,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -4437,7 +4490,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -4446,7 +4499,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -4455,7 +4508,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -4464,7 +4517,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -4473,7 +4526,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -4482,7 +4535,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -4491,7 +4544,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -4500,7 +4553,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -4509,7 +4562,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -4518,7 +4571,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -4527,7 +4580,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -4536,7 +4589,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -4545,7 +4598,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -4554,7 +4607,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -4563,7 +4616,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -4572,7 +4625,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -4581,7 +4634,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -4590,7 +4643,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -4599,7 +4652,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -4608,7 +4661,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -4617,7 +4670,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -4626,7 +4679,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -4635,7 +4688,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -4644,7 +4697,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -4653,7 +4706,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -4662,7 +4715,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -4671,7 +4724,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
